--- a/week04/Validation.xlsx
+++ b/week04/Validation.xlsx
@@ -414,13 +414,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.9939</v>
+        <v>0.99738</v>
       </c>
       <c r="C2">
-        <v>0.99938</v>
+        <v>0.98323</v>
       </c>
       <c r="D2">
-        <v>1.12453</v>
+        <v>1.14648</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -439,13 +439,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.49556</v>
+        <v>0.4949</v>
       </c>
       <c r="C4">
-        <v>0.54222</v>
+        <v>0.51754</v>
       </c>
       <c r="D4">
-        <v>0.57269</v>
+        <v>0.59756</v>
       </c>
     </row>
     <row r="5" spans="1:4">
